--- a/assets/Groups/XLSX/ISEC-Group_Groups.xlsx
+++ b/assets/Groups/XLSX/ISEC-Group_Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeldidier\Documents\GitHub\ActiveDirectory-Monitoring-CESI-Project\assets\Groups\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1C8FA4-DDD4-46CC-976B-453741CAF80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C0D366-60A0-4DA2-A93F-6A545959552E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1399" yWindow="1399" windowWidth="19563" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISEC-Group_OUs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
   <si>
     <t>Group</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>DomainLocal</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>OU=Service,OU=ISEC-Group,OU=Global,DC=isec-group,DC=local</t>
+  </si>
+  <si>
+    <t>GRP-GRP-SEC-GLO-ADFI-ALL,GRP-GRP-SEC-GLO-BUSINESS-ALL,GRP-GRP-SEC-GLO-COMMUNICATION-ALL,GRP-GRP-SEC-GLO-DIRECTION-ALL,GRP-GRP-SEC-GLO-HR-ALL</t>
   </si>
 </sst>
 </file>
@@ -957,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -972,9 +981,9 @@
     <col min="6" max="7" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -991,8 +1000,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1009,10 +1021,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1029,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1049,10 +1061,10 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1069,10 +1081,10 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1089,10 +1101,10 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1111,8 +1123,11 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1131,8 +1146,11 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1169,11 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1171,8 +1192,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1215,11 @@
       <c r="F11" t="s">
         <v>24</v>
       </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1211,8 +1238,11 @@
       <c r="F12" t="s">
         <v>7</v>
       </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1230,6 +1260,9 @@
       </c>
       <c r="F13" t="s">
         <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
